--- a/Code/Results/Cases/Case_1_199/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_199/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.005969837412482</v>
+        <v>1.031673198363605</v>
       </c>
       <c r="D2">
-        <v>1.045644255226811</v>
+        <v>1.051972450732113</v>
       </c>
       <c r="E2">
-        <v>1.011589385789692</v>
+        <v>1.031216568608252</v>
       </c>
       <c r="F2">
-        <v>1.045227854201539</v>
+        <v>1.057942626363359</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056574544627053</v>
+        <v>1.044456028989515</v>
       </c>
       <c r="J2">
-        <v>1.027973446106996</v>
+        <v>1.036807629340518</v>
       </c>
       <c r="K2">
-        <v>1.056502311957495</v>
+        <v>1.054722472199143</v>
       </c>
       <c r="L2">
-        <v>1.022889589145532</v>
+        <v>1.034025327195363</v>
       </c>
       <c r="M2">
-        <v>1.056091100327712</v>
+        <v>1.060676215283342</v>
       </c>
       <c r="N2">
-        <v>1.029433286310671</v>
+        <v>1.038280015097679</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.010110165889039</v>
+        <v>1.032550661841594</v>
       </c>
       <c r="D3">
-        <v>1.048566411753759</v>
+        <v>1.052600584086589</v>
       </c>
       <c r="E3">
-        <v>1.014873265899866</v>
+        <v>1.031960201960181</v>
       </c>
       <c r="F3">
-        <v>1.048734077645779</v>
+        <v>1.05872414945783</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057942784958512</v>
+        <v>1.044684897724369</v>
       </c>
       <c r="J3">
-        <v>1.030328961303374</v>
+        <v>1.037327433069893</v>
       </c>
       <c r="K3">
-        <v>1.058613416005366</v>
+        <v>1.055163832872516</v>
       </c>
       <c r="L3">
-        <v>1.025319312766022</v>
+        <v>1.034577652105992</v>
       </c>
       <c r="M3">
-        <v>1.05877917525805</v>
+        <v>1.061271756243174</v>
       </c>
       <c r="N3">
-        <v>1.031792146608808</v>
+        <v>1.038800557007971</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.012738294916814</v>
+        <v>1.033119011732486</v>
       </c>
       <c r="D4">
-        <v>1.050423746894474</v>
+        <v>1.053007335807203</v>
       </c>
       <c r="E4">
-        <v>1.016963603056113</v>
+        <v>1.032442256605858</v>
       </c>
       <c r="F4">
-        <v>1.050964389550206</v>
+        <v>1.059230538852148</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058801648868543</v>
+        <v>1.044831912589931</v>
       </c>
       <c r="J4">
-        <v>1.031821672816887</v>
+        <v>1.037663713345012</v>
       </c>
       <c r="K4">
-        <v>1.059949431644942</v>
+        <v>1.055449038108559</v>
       </c>
       <c r="L4">
-        <v>1.026861514281402</v>
+        <v>1.034935251892772</v>
       </c>
       <c r="M4">
-        <v>1.060484298327882</v>
+        <v>1.061657141406283</v>
       </c>
       <c r="N4">
-        <v>1.033286977943888</v>
+        <v>1.039137314839653</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.013831361248296</v>
+        <v>1.033358081627758</v>
       </c>
       <c r="D5">
-        <v>1.051196757879038</v>
+        <v>1.053178405999587</v>
       </c>
       <c r="E5">
-        <v>1.01783436163619</v>
+        <v>1.032645119976384</v>
       </c>
       <c r="F5">
-        <v>1.051893067667479</v>
+        <v>1.059443588583592</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059156501927647</v>
+        <v>1.044893458607108</v>
       </c>
       <c r="J5">
-        <v>1.032441881508494</v>
+        <v>1.037805068224434</v>
       </c>
       <c r="K5">
-        <v>1.060504074063988</v>
+        <v>1.055568844952112</v>
       </c>
       <c r="L5">
-        <v>1.027502876834947</v>
+        <v>1.035085635511789</v>
       </c>
       <c r="M5">
-        <v>1.061193143390996</v>
+        <v>1.061819162978619</v>
       </c>
       <c r="N5">
-        <v>1.033908067402975</v>
+        <v>1.039278870459218</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.014014211173734</v>
+        <v>1.033398230425651</v>
       </c>
       <c r="D6">
-        <v>1.051326097519015</v>
+        <v>1.053207133592862</v>
       </c>
       <c r="E6">
-        <v>1.017980102737577</v>
+        <v>1.032679193753868</v>
       </c>
       <c r="F6">
-        <v>1.052048479622464</v>
+        <v>1.059479370109206</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059215722516939</v>
+        <v>1.044903777240175</v>
       </c>
       <c r="J6">
-        <v>1.03254559340604</v>
+        <v>1.037828801278795</v>
       </c>
       <c r="K6">
-        <v>1.060596794083877</v>
+        <v>1.05558895552964</v>
       </c>
       <c r="L6">
-        <v>1.027610160865893</v>
+        <v>1.035110888399894</v>
       </c>
       <c r="M6">
-        <v>1.061311699039017</v>
+        <v>1.061846367397906</v>
       </c>
       <c r="N6">
-        <v>1.034011926583311</v>
+        <v>1.039302637217238</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.012752946372942</v>
+        <v>1.03312220566508</v>
       </c>
       <c r="D7">
-        <v>1.050434106335938</v>
+        <v>1.053009621375792</v>
       </c>
       <c r="E7">
-        <v>1.016975269356944</v>
+        <v>1.032444966462532</v>
       </c>
       <c r="F7">
-        <v>1.050976833403321</v>
+        <v>1.059233384992603</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058806414683462</v>
+        <v>1.044832735989689</v>
       </c>
       <c r="J7">
-        <v>1.031829988600818</v>
+        <v>1.037665602205488</v>
       </c>
       <c r="K7">
-        <v>1.059956870166992</v>
+        <v>1.055450639342318</v>
       </c>
       <c r="L7">
-        <v>1.026870111361132</v>
+        <v>1.034937261136422</v>
       </c>
       <c r="M7">
-        <v>1.060493801069563</v>
+        <v>1.061659306326292</v>
       </c>
       <c r="N7">
-        <v>1.033295305537185</v>
+        <v>1.039139206382528</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.007379872643575</v>
+        <v>1.031969621891589</v>
       </c>
       <c r="D8">
-        <v>1.046638874112937</v>
+        <v>1.052184666582431</v>
       </c>
       <c r="E8">
-        <v>1.012706498594425</v>
+        <v>1.031467700978415</v>
       </c>
       <c r="F8">
-        <v>1.046420919905513</v>
+        <v>1.058206601353139</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057042508126246</v>
+        <v>1.044533599060467</v>
       </c>
       <c r="J8">
-        <v>1.028776145034151</v>
+        <v>1.036983312704818</v>
       </c>
       <c r="K8">
-        <v>1.057222085389734</v>
+        <v>1.054871710931107</v>
       </c>
       <c r="L8">
-        <v>1.023717059710457</v>
+        <v>1.034211944016171</v>
       </c>
       <c r="M8">
-        <v>1.057006766266291</v>
+        <v>1.060877473887378</v>
       </c>
       <c r="N8">
-        <v>1.030237125162373</v>
+        <v>1.038455947952507</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9975029501100054</v>
+        <v>1.029943068328784</v>
       </c>
       <c r="D9">
-        <v>1.039684945669902</v>
+        <v>1.050733426345546</v>
       </c>
       <c r="E9">
-        <v>1.004907823019421</v>
+        <v>1.029752403174543</v>
       </c>
       <c r="F9">
-        <v>1.038086111337645</v>
+        <v>1.056402661646181</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053725529518666</v>
+        <v>1.043998258390907</v>
       </c>
       <c r="J9">
-        <v>1.023144194839488</v>
+        <v>1.035780567062035</v>
       </c>
       <c r="K9">
-        <v>1.05216537933355</v>
+        <v>1.05384867916397</v>
       </c>
       <c r="L9">
-        <v>1.017921772922329</v>
+        <v>1.032935497021225</v>
       </c>
       <c r="M9">
-        <v>1.050590076790958</v>
+        <v>1.059500088882167</v>
       </c>
       <c r="N9">
-        <v>1.02459717695244</v>
+        <v>1.037251494272955</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9906157146729807</v>
+        <v>1.028595106194215</v>
       </c>
       <c r="D10">
-        <v>1.034855706683695</v>
+        <v>1.049767679478493</v>
       </c>
       <c r="E10">
-        <v>0.9995051987834926</v>
+        <v>1.028613521916232</v>
       </c>
       <c r="F10">
-        <v>1.032305366643165</v>
+        <v>1.055203772134233</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051365061728836</v>
+        <v>1.043635885470655</v>
       </c>
       <c r="J10">
-        <v>1.019206670532485</v>
+        <v>1.034978495065795</v>
       </c>
       <c r="K10">
-        <v>1.04862291218554</v>
+        <v>1.053164798333805</v>
       </c>
       <c r="L10">
-        <v>1.013883392769708</v>
+        <v>1.032085720771503</v>
       </c>
       <c r="M10">
-        <v>1.046114847702621</v>
+        <v>1.058582132401929</v>
       </c>
       <c r="N10">
-        <v>1.02065406090928</v>
+        <v>1.036448283242481</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9875550347984072</v>
+        <v>1.028012170274084</v>
       </c>
       <c r="D11">
-        <v>1.032715347053159</v>
+        <v>1.049349937740171</v>
       </c>
       <c r="E11">
-        <v>0.9971133380188408</v>
+        <v>1.028121497813149</v>
       </c>
       <c r="F11">
-        <v>1.029744774876999</v>
+        <v>1.054685550755346</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050305468871175</v>
+        <v>1.043477684838876</v>
       </c>
       <c r="J11">
-        <v>1.01745486261857</v>
+        <v>1.034631146562221</v>
       </c>
       <c r="K11">
-        <v>1.047045592159229</v>
+        <v>1.052868246298284</v>
       </c>
       <c r="L11">
-        <v>1.012089898653045</v>
+        <v>1.031718056140097</v>
       </c>
       <c r="M11">
-        <v>1.044126734110786</v>
+        <v>1.058184738547989</v>
       </c>
       <c r="N11">
-        <v>1.018899765227192</v>
+        <v>1.036100441464191</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.986405766025036</v>
+        <v>1.027795754572539</v>
       </c>
       <c r="D12">
-        <v>1.031912611579221</v>
+        <v>1.049194836779281</v>
       </c>
       <c r="E12">
-        <v>0.9962166267571789</v>
+        <v>1.027938907966818</v>
       </c>
       <c r="F12">
-        <v>1.028784630377092</v>
+        <v>1.054493198324519</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049906063383427</v>
+        <v>1.043418728976826</v>
       </c>
       <c r="J12">
-        <v>1.016796813258221</v>
+        <v>1.034502120127232</v>
       </c>
       <c r="K12">
-        <v>1.046452932906018</v>
+        <v>1.05275803085997</v>
       </c>
       <c r="L12">
-        <v>1.011416670959569</v>
+        <v>1.031581534591941</v>
       </c>
       <c r="M12">
-        <v>1.043380386955648</v>
+        <v>1.058037143528246</v>
       </c>
       <c r="N12">
-        <v>1.018240781361273</v>
+        <v>1.035971231796864</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9866528592165895</v>
+        <v>1.027842171354942</v>
       </c>
       <c r="D13">
-        <v>1.032085155139653</v>
+        <v>1.04922810340372</v>
       </c>
       <c r="E13">
-        <v>0.9964093548822747</v>
+        <v>1.02797806639706</v>
       </c>
       <c r="F13">
-        <v>1.028990999611565</v>
+        <v>1.054534452294264</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049992004052251</v>
+        <v>1.04343138393454</v>
       </c>
       <c r="J13">
-        <v>1.016938304930225</v>
+        <v>1.03452979697608</v>
       </c>
       <c r="K13">
-        <v>1.046580370982357</v>
+        <v>1.05278167526598</v>
       </c>
       <c r="L13">
-        <v>1.011561404469733</v>
+        <v>1.03161081684943</v>
       </c>
       <c r="M13">
-        <v>1.043540842495345</v>
+        <v>1.058068802467362</v>
       </c>
       <c r="N13">
-        <v>1.01838247396768</v>
+        <v>1.035998947950012</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9874602924110898</v>
+        <v>1.027994278978509</v>
       </c>
       <c r="D14">
-        <v>1.032649151830649</v>
+        <v>1.049337115670438</v>
       </c>
       <c r="E14">
-        <v>0.9970393865334012</v>
+        <v>1.028106401405556</v>
       </c>
       <c r="F14">
-        <v>1.029665595506335</v>
+        <v>1.054669648015445</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050272573881587</v>
+        <v>1.043472815463438</v>
       </c>
       <c r="J14">
-        <v>1.017400619871393</v>
+        <v>1.034620481307015</v>
       </c>
       <c r="K14">
-        <v>1.046996742417016</v>
+        <v>1.05285913712917</v>
       </c>
       <c r="L14">
-        <v>1.012034394976255</v>
+        <v>1.031706770291427</v>
       </c>
       <c r="M14">
-        <v>1.044065203319716</v>
+        <v>1.058172537987284</v>
       </c>
       <c r="N14">
-        <v>1.018845445449093</v>
+        <v>1.036089761063099</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9879561172170536</v>
+        <v>1.02808801247505</v>
       </c>
       <c r="D15">
-        <v>1.032995617540365</v>
+        <v>1.049404290649123</v>
       </c>
       <c r="E15">
-        <v>0.9974264624708572</v>
+        <v>1.028185495392453</v>
       </c>
       <c r="F15">
-        <v>1.030080028148051</v>
+        <v>1.054752964915567</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.05044466432333</v>
+        <v>1.043498317232247</v>
       </c>
       <c r="J15">
-        <v>1.017684483721136</v>
+        <v>1.034676354191658</v>
       </c>
       <c r="K15">
-        <v>1.047252377444936</v>
+        <v>1.05290685565765</v>
       </c>
       <c r="L15">
-        <v>1.012324877150123</v>
+        <v>1.031765896436967</v>
       </c>
       <c r="M15">
-        <v>1.044387226319178</v>
+        <v>1.058236454868173</v>
       </c>
       <c r="N15">
-        <v>1.019129712418062</v>
+        <v>1.036145713293647</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9908171378006297</v>
+        <v>1.028633809453156</v>
       </c>
       <c r="D16">
-        <v>1.034996691346137</v>
+        <v>1.049795412904391</v>
       </c>
       <c r="E16">
-        <v>0.9996628007540808</v>
+        <v>1.02864619965632</v>
       </c>
       <c r="F16">
-        <v>1.03247406069465</v>
+        <v>1.055238184032499</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051434577291965</v>
+        <v>1.043646357600533</v>
       </c>
       <c r="J16">
-        <v>1.019321919186893</v>
+        <v>1.03500154657291</v>
       </c>
       <c r="K16">
-        <v>1.048726658089032</v>
+        <v>1.053184470633038</v>
       </c>
       <c r="L16">
-        <v>1.014001450451617</v>
+        <v>1.032110127767856</v>
       </c>
       <c r="M16">
-        <v>1.046245705836916</v>
+        <v>1.058608508102693</v>
       </c>
       <c r="N16">
-        <v>1.020769473229997</v>
+        <v>1.03647136748538</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.992590356822818</v>
+        <v>1.028976372732414</v>
       </c>
       <c r="D17">
-        <v>1.036238509366802</v>
+        <v>1.050040870812146</v>
       </c>
       <c r="E17">
-        <v>1.001051281486605</v>
+        <v>1.028935488054631</v>
       </c>
       <c r="F17">
-        <v>1.033960114219645</v>
+        <v>1.055542793052339</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052045352971651</v>
+        <v>1.043738874415825</v>
       </c>
       <c r="J17">
-        <v>1.020336285038555</v>
+        <v>1.035205519670804</v>
       </c>
       <c r="K17">
-        <v>1.049639641312495</v>
+        <v>1.053358497781615</v>
       </c>
       <c r="L17">
-        <v>1.01504090300472</v>
+        <v>1.032326134629367</v>
       </c>
       <c r="M17">
-        <v>1.047397795112727</v>
+        <v>1.058841911804735</v>
       </c>
       <c r="N17">
-        <v>1.021785279597517</v>
+        <v>1.036675630248469</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9936171181460373</v>
+        <v>1.029176255459183</v>
       </c>
       <c r="D18">
-        <v>1.036958108998326</v>
+        <v>1.050184083913115</v>
       </c>
       <c r="E18">
-        <v>1.001856121365016</v>
+        <v>1.029104332936328</v>
       </c>
       <c r="F18">
-        <v>1.034821384492296</v>
+        <v>1.055720553592569</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052398003992737</v>
+        <v>1.043792713313705</v>
       </c>
       <c r="J18">
-        <v>1.02092345087059</v>
+        <v>1.035324489206766</v>
       </c>
       <c r="K18">
-        <v>1.050167998402261</v>
+        <v>1.053459963570618</v>
       </c>
       <c r="L18">
-        <v>1.015642892467817</v>
+        <v>1.032452156066825</v>
       </c>
       <c r="M18">
-        <v>1.048064957339241</v>
+        <v>1.058978060555182</v>
       </c>
       <c r="N18">
-        <v>1.022373279272383</v>
+        <v>1.036794768734819</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9939659582912777</v>
+        <v>1.029244422365507</v>
       </c>
       <c r="D19">
-        <v>1.037202680365564</v>
+        <v>1.050232922888463</v>
       </c>
       <c r="E19">
-        <v>1.002129707748405</v>
+        <v>1.029161922919813</v>
       </c>
       <c r="F19">
-        <v>1.03511413063046</v>
+        <v>1.055781180081912</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052517643210294</v>
+        <v>1.043811049828135</v>
       </c>
       <c r="J19">
-        <v>1.021122905750669</v>
+        <v>1.035365053941292</v>
       </c>
       <c r="K19">
-        <v>1.0503474544861</v>
+        <v>1.053494553735485</v>
       </c>
       <c r="L19">
-        <v>1.015847433998733</v>
+        <v>1.032495130879722</v>
       </c>
       <c r="M19">
-        <v>1.04829163208919</v>
+        <v>1.059024485122374</v>
       </c>
       <c r="N19">
-        <v>1.022573017401269</v>
+        <v>1.03683539107592</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9924008900617644</v>
+        <v>1.028939611543211</v>
       </c>
       <c r="D20">
-        <v>1.036105765654314</v>
+        <v>1.05001453117949</v>
       </c>
       <c r="E20">
-        <v>1.000902834377527</v>
+        <v>1.028904438979268</v>
       </c>
       <c r="F20">
-        <v>1.033801248401171</v>
+        <v>1.055510102347974</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051980196663749</v>
+        <v>1.043728961118666</v>
       </c>
       <c r="J20">
-        <v>1.020227920492864</v>
+        <v>1.035183635746886</v>
       </c>
       <c r="K20">
-        <v>1.049542120000864</v>
+        <v>1.053339830577822</v>
       </c>
       <c r="L20">
-        <v>1.014929827086777</v>
+        <v>1.032302956202001</v>
       </c>
       <c r="M20">
-        <v>1.047274688844709</v>
+        <v>1.058816868924103</v>
       </c>
       <c r="N20">
-        <v>1.021676761161743</v>
+        <v>1.036653715246869</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9872228707297087</v>
+        <v>1.027949483953549</v>
       </c>
       <c r="D21">
-        <v>1.032483284282486</v>
+        <v>1.049305012412667</v>
       </c>
       <c r="E21">
-        <v>0.9968540893262339</v>
+        <v>1.028068605242937</v>
       </c>
       <c r="F21">
-        <v>1.029467196251585</v>
+        <v>1.054629832418009</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050190115476932</v>
+        <v>1.043460620234847</v>
       </c>
       <c r="J21">
-        <v>1.017264685154662</v>
+        <v>1.034593777180629</v>
       </c>
       <c r="K21">
-        <v>1.046874320446541</v>
+        <v>1.052836328264033</v>
       </c>
       <c r="L21">
-        <v>1.011895308066568</v>
+        <v>1.031678513128951</v>
       </c>
       <c r="M21">
-        <v>1.043911012088318</v>
+        <v>1.058141990041935</v>
       </c>
       <c r="N21">
-        <v>1.018709317689472</v>
+        <v>1.03606301901379</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.983895194980444</v>
+        <v>1.027327603915003</v>
       </c>
       <c r="D22">
-        <v>1.030160909160734</v>
+        <v>1.048859297905099</v>
       </c>
       <c r="E22">
-        <v>0.9942604422031992</v>
+        <v>1.027544066722595</v>
       </c>
       <c r="F22">
-        <v>1.026689770276949</v>
+        <v>1.054077171550681</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049030811739141</v>
+        <v>1.0432907868398</v>
       </c>
       <c r="J22">
-        <v>1.015358887401017</v>
+        <v>1.034222877092415</v>
       </c>
       <c r="K22">
-        <v>1.045157650963364</v>
+        <v>1.052519393658916</v>
       </c>
       <c r="L22">
-        <v>1.009946464821323</v>
+        <v>1.031286164672822</v>
       </c>
       <c r="M22">
-        <v>1.041750413133303</v>
+        <v>1.057717753055044</v>
       </c>
       <c r="N22">
-        <v>1.016800813484418</v>
+        <v>1.035691592204907</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9856663017096576</v>
+        <v>1.027657211977234</v>
       </c>
       <c r="D23">
-        <v>1.031396396348291</v>
+        <v>1.049095542190076</v>
       </c>
       <c r="E23">
-        <v>0.9956400709060248</v>
+        <v>1.027822040743066</v>
       </c>
       <c r="F23">
-        <v>1.028167242620697</v>
+        <v>1.054370071058728</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04964865260383</v>
+        <v>1.043380924324611</v>
       </c>
       <c r="J23">
-        <v>1.016373343668586</v>
+        <v>1.034419500941978</v>
       </c>
       <c r="K23">
-        <v>1.046071504503939</v>
+        <v>1.052687440616581</v>
       </c>
       <c r="L23">
-        <v>1.010983569519182</v>
+        <v>1.031494130590271</v>
       </c>
       <c r="M23">
-        <v>1.042900231472322</v>
+        <v>1.057942640399596</v>
       </c>
       <c r="N23">
-        <v>1.017816710396247</v>
+        <v>1.035888495282891</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9924865251532312</v>
+        <v>1.028956222121896</v>
       </c>
       <c r="D24">
-        <v>1.036165761424887</v>
+        <v>1.050026432797238</v>
       </c>
       <c r="E24">
-        <v>1.000969926776196</v>
+        <v>1.028918468386894</v>
       </c>
       <c r="F24">
-        <v>1.033873050055729</v>
+        <v>1.055524873600777</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052009649118513</v>
+        <v>1.043733440896011</v>
       </c>
       <c r="J24">
-        <v>1.020276899639824</v>
+        <v>1.035193524164226</v>
       </c>
       <c r="K24">
-        <v>1.049586198554224</v>
+        <v>1.05334826561148</v>
       </c>
       <c r="L24">
-        <v>1.01498003079657</v>
+        <v>1.032313429448366</v>
       </c>
       <c r="M24">
-        <v>1.04733033017786</v>
+        <v>1.058828184698395</v>
       </c>
       <c r="N24">
-        <v>1.021725809864708</v>
+        <v>1.036663617706897</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.000107577934695</v>
+        <v>1.03046644543571</v>
       </c>
       <c r="D25">
-        <v>1.041515676786683</v>
+        <v>1.051108306854579</v>
       </c>
       <c r="E25">
-        <v>1.006958489086592</v>
+        <v>1.030195036359506</v>
       </c>
       <c r="F25">
-        <v>1.040278997847035</v>
+        <v>1.056868373185893</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054608660271221</v>
+        <v>1.044137626161749</v>
       </c>
       <c r="J25">
-        <v>1.02463132219545</v>
+        <v>1.036091553392187</v>
       </c>
       <c r="K25">
-        <v>1.053501971793342</v>
+        <v>1.054113491076681</v>
       </c>
       <c r="L25">
-        <v>1.019449735387071</v>
+        <v>1.033265285267232</v>
       </c>
       <c r="M25">
-        <v>1.052282632004803</v>
+        <v>1.059856130036993</v>
       </c>
       <c r="N25">
-        <v>1.026086416199823</v>
+        <v>1.037562922239367</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_199/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_199/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031673198363605</v>
+        <v>1.00596983741248</v>
       </c>
       <c r="D2">
-        <v>1.051972450732113</v>
+        <v>1.04564425522681</v>
       </c>
       <c r="E2">
-        <v>1.031216568608252</v>
+        <v>1.01158938578969</v>
       </c>
       <c r="F2">
-        <v>1.057942626363359</v>
+        <v>1.045227854201538</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044456028989515</v>
+        <v>1.056574544627052</v>
       </c>
       <c r="J2">
-        <v>1.036807629340518</v>
+        <v>1.027973446106995</v>
       </c>
       <c r="K2">
-        <v>1.054722472199143</v>
+        <v>1.056502311957494</v>
       </c>
       <c r="L2">
-        <v>1.034025327195363</v>
+        <v>1.02288958914553</v>
       </c>
       <c r="M2">
-        <v>1.060676215283342</v>
+        <v>1.05609110032771</v>
       </c>
       <c r="N2">
-        <v>1.038280015097679</v>
+        <v>1.029433286310669</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032550661841594</v>
+        <v>1.01011016588904</v>
       </c>
       <c r="D3">
-        <v>1.052600584086589</v>
+        <v>1.048566411753759</v>
       </c>
       <c r="E3">
-        <v>1.031960201960181</v>
+        <v>1.014873265899867</v>
       </c>
       <c r="F3">
-        <v>1.05872414945783</v>
+        <v>1.048734077645779</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044684897724369</v>
+        <v>1.057942784958512</v>
       </c>
       <c r="J3">
-        <v>1.037327433069893</v>
+        <v>1.030328961303374</v>
       </c>
       <c r="K3">
-        <v>1.055163832872516</v>
+        <v>1.058613416005366</v>
       </c>
       <c r="L3">
-        <v>1.034577652105992</v>
+        <v>1.025319312766023</v>
       </c>
       <c r="M3">
-        <v>1.061271756243174</v>
+        <v>1.05877917525805</v>
       </c>
       <c r="N3">
-        <v>1.038800557007971</v>
+        <v>1.031792146608808</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033119011732486</v>
+        <v>1.012738294916812</v>
       </c>
       <c r="D4">
-        <v>1.053007335807203</v>
+        <v>1.050423746894473</v>
       </c>
       <c r="E4">
-        <v>1.032442256605858</v>
+        <v>1.016963603056112</v>
       </c>
       <c r="F4">
-        <v>1.059230538852148</v>
+        <v>1.050964389550205</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044831912589931</v>
+        <v>1.058801648868542</v>
       </c>
       <c r="J4">
-        <v>1.037663713345012</v>
+        <v>1.031821672816886</v>
       </c>
       <c r="K4">
-        <v>1.055449038108559</v>
+        <v>1.059949431644942</v>
       </c>
       <c r="L4">
-        <v>1.034935251892772</v>
+        <v>1.026861514281401</v>
       </c>
       <c r="M4">
-        <v>1.061657141406283</v>
+        <v>1.060484298327881</v>
       </c>
       <c r="N4">
-        <v>1.039137314839653</v>
+        <v>1.033286977943886</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033358081627758</v>
+        <v>1.013831361248295</v>
       </c>
       <c r="D5">
-        <v>1.053178405999587</v>
+        <v>1.051196757879037</v>
       </c>
       <c r="E5">
-        <v>1.032645119976384</v>
+        <v>1.017834361636189</v>
       </c>
       <c r="F5">
-        <v>1.059443588583592</v>
+        <v>1.051893067667478</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044893458607108</v>
+        <v>1.059156501927646</v>
       </c>
       <c r="J5">
-        <v>1.037805068224434</v>
+        <v>1.032441881508493</v>
       </c>
       <c r="K5">
-        <v>1.055568844952112</v>
+        <v>1.060504074063987</v>
       </c>
       <c r="L5">
-        <v>1.035085635511789</v>
+        <v>1.027502876834946</v>
       </c>
       <c r="M5">
-        <v>1.061819162978619</v>
+        <v>1.061193143390994</v>
       </c>
       <c r="N5">
-        <v>1.039278870459218</v>
+        <v>1.033908067402974</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033398230425651</v>
+        <v>1.014014211173734</v>
       </c>
       <c r="D6">
-        <v>1.053207133592862</v>
+        <v>1.051326097519015</v>
       </c>
       <c r="E6">
-        <v>1.032679193753868</v>
+        <v>1.017980102737577</v>
       </c>
       <c r="F6">
-        <v>1.059479370109206</v>
+        <v>1.052048479622465</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044903777240175</v>
+        <v>1.059215722516939</v>
       </c>
       <c r="J6">
-        <v>1.037828801278795</v>
+        <v>1.03254559340604</v>
       </c>
       <c r="K6">
-        <v>1.05558895552964</v>
+        <v>1.060596794083877</v>
       </c>
       <c r="L6">
-        <v>1.035110888399894</v>
+        <v>1.027610160865893</v>
       </c>
       <c r="M6">
-        <v>1.061846367397906</v>
+        <v>1.061311699039017</v>
       </c>
       <c r="N6">
-        <v>1.039302637217238</v>
+        <v>1.034011926583311</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03312220566508</v>
+        <v>1.012752946372942</v>
       </c>
       <c r="D7">
-        <v>1.053009621375792</v>
+        <v>1.050434106335938</v>
       </c>
       <c r="E7">
-        <v>1.032444966462532</v>
+        <v>1.016975269356944</v>
       </c>
       <c r="F7">
-        <v>1.059233384992603</v>
+        <v>1.05097683340332</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044832735989689</v>
+        <v>1.058806414683461</v>
       </c>
       <c r="J7">
-        <v>1.037665602205488</v>
+        <v>1.031829988600818</v>
       </c>
       <c r="K7">
-        <v>1.055450639342318</v>
+        <v>1.059956870166991</v>
       </c>
       <c r="L7">
-        <v>1.034937261136422</v>
+        <v>1.026870111361132</v>
       </c>
       <c r="M7">
-        <v>1.061659306326292</v>
+        <v>1.060493801069563</v>
       </c>
       <c r="N7">
-        <v>1.039139206382528</v>
+        <v>1.033295305537184</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031969621891589</v>
+        <v>1.007379872643574</v>
       </c>
       <c r="D8">
-        <v>1.052184666582431</v>
+        <v>1.046638874112937</v>
       </c>
       <c r="E8">
-        <v>1.031467700978415</v>
+        <v>1.012706498594424</v>
       </c>
       <c r="F8">
-        <v>1.058206601353139</v>
+        <v>1.046420919905512</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044533599060467</v>
+        <v>1.057042508126246</v>
       </c>
       <c r="J8">
-        <v>1.036983312704818</v>
+        <v>1.02877614503415</v>
       </c>
       <c r="K8">
-        <v>1.054871710931107</v>
+        <v>1.057222085389734</v>
       </c>
       <c r="L8">
-        <v>1.034211944016171</v>
+        <v>1.023717059710456</v>
       </c>
       <c r="M8">
-        <v>1.060877473887378</v>
+        <v>1.057006766266291</v>
       </c>
       <c r="N8">
-        <v>1.038455947952507</v>
+        <v>1.030237125162372</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029943068328784</v>
+        <v>0.9975029501100048</v>
       </c>
       <c r="D9">
-        <v>1.050733426345546</v>
+        <v>1.039684945669901</v>
       </c>
       <c r="E9">
-        <v>1.029752403174543</v>
+        <v>1.004907823019421</v>
       </c>
       <c r="F9">
-        <v>1.056402661646181</v>
+        <v>1.038086111337645</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043998258390907</v>
+        <v>1.053725529518666</v>
       </c>
       <c r="J9">
-        <v>1.035780567062035</v>
+        <v>1.023144194839487</v>
       </c>
       <c r="K9">
-        <v>1.05384867916397</v>
+        <v>1.052165379333549</v>
       </c>
       <c r="L9">
-        <v>1.032935497021225</v>
+        <v>1.017921772922328</v>
       </c>
       <c r="M9">
-        <v>1.059500088882167</v>
+        <v>1.050590076790957</v>
       </c>
       <c r="N9">
-        <v>1.037251494272955</v>
+        <v>1.024597176952439</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028595106194215</v>
+        <v>0.9906157146729798</v>
       </c>
       <c r="D10">
-        <v>1.049767679478493</v>
+        <v>1.034855706683695</v>
       </c>
       <c r="E10">
-        <v>1.028613521916232</v>
+        <v>0.9995051987834919</v>
       </c>
       <c r="F10">
-        <v>1.055203772134233</v>
+        <v>1.032305366643165</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043635885470655</v>
+        <v>1.051365061728836</v>
       </c>
       <c r="J10">
-        <v>1.034978495065795</v>
+        <v>1.019206670532484</v>
       </c>
       <c r="K10">
-        <v>1.053164798333805</v>
+        <v>1.04862291218554</v>
       </c>
       <c r="L10">
-        <v>1.032085720771503</v>
+        <v>1.013883392769707</v>
       </c>
       <c r="M10">
-        <v>1.058582132401929</v>
+        <v>1.046114847702621</v>
       </c>
       <c r="N10">
-        <v>1.036448283242481</v>
+        <v>1.02065406090928</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.028012170274084</v>
+        <v>0.9875550347984068</v>
       </c>
       <c r="D11">
-        <v>1.049349937740171</v>
+        <v>1.032715347053158</v>
       </c>
       <c r="E11">
-        <v>1.028121497813149</v>
+        <v>0.9971133380188403</v>
       </c>
       <c r="F11">
-        <v>1.054685550755346</v>
+        <v>1.029744774876999</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043477684838876</v>
+        <v>1.050305468871175</v>
       </c>
       <c r="J11">
-        <v>1.034631146562221</v>
+        <v>1.01745486261857</v>
       </c>
       <c r="K11">
-        <v>1.052868246298284</v>
+        <v>1.047045592159229</v>
       </c>
       <c r="L11">
-        <v>1.031718056140097</v>
+        <v>1.012089898653044</v>
       </c>
       <c r="M11">
-        <v>1.058184738547989</v>
+        <v>1.044126734110786</v>
       </c>
       <c r="N11">
-        <v>1.036100441464191</v>
+        <v>1.018899765227192</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.027795754572539</v>
+        <v>0.986405766025035</v>
       </c>
       <c r="D12">
-        <v>1.049194836779281</v>
+        <v>1.03191261157922</v>
       </c>
       <c r="E12">
-        <v>1.027938907966818</v>
+        <v>0.9962166267571779</v>
       </c>
       <c r="F12">
-        <v>1.054493198324519</v>
+        <v>1.028784630377091</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043418728976826</v>
+        <v>1.049906063383427</v>
       </c>
       <c r="J12">
-        <v>1.034502120127232</v>
+        <v>1.01679681325822</v>
       </c>
       <c r="K12">
-        <v>1.05275803085997</v>
+        <v>1.046452932906018</v>
       </c>
       <c r="L12">
-        <v>1.031581534591941</v>
+        <v>1.011416670959568</v>
       </c>
       <c r="M12">
-        <v>1.058037143528246</v>
+        <v>1.043380386955647</v>
       </c>
       <c r="N12">
-        <v>1.035971231796864</v>
+        <v>1.018240781361271</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.027842171354942</v>
+        <v>0.9866528592165884</v>
       </c>
       <c r="D13">
-        <v>1.04922810340372</v>
+        <v>1.032085155139652</v>
       </c>
       <c r="E13">
-        <v>1.02797806639706</v>
+        <v>0.9964093548822737</v>
       </c>
       <c r="F13">
-        <v>1.054534452294264</v>
+        <v>1.028990999611564</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04343138393454</v>
+        <v>1.04999200405225</v>
       </c>
       <c r="J13">
-        <v>1.03452979697608</v>
+        <v>1.016938304930224</v>
       </c>
       <c r="K13">
-        <v>1.05278167526598</v>
+        <v>1.046580370982356</v>
       </c>
       <c r="L13">
-        <v>1.03161081684943</v>
+        <v>1.011561404469732</v>
       </c>
       <c r="M13">
-        <v>1.058068802467362</v>
+        <v>1.043540842495344</v>
       </c>
       <c r="N13">
-        <v>1.035998947950012</v>
+        <v>1.018382473967679</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027994278978509</v>
+        <v>0.9874602924110893</v>
       </c>
       <c r="D14">
-        <v>1.049337115670438</v>
+        <v>1.032649151830648</v>
       </c>
       <c r="E14">
-        <v>1.028106401405556</v>
+        <v>0.9970393865334007</v>
       </c>
       <c r="F14">
-        <v>1.054669648015445</v>
+        <v>1.029665595506335</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043472815463438</v>
+        <v>1.050272573881587</v>
       </c>
       <c r="J14">
-        <v>1.034620481307015</v>
+        <v>1.017400619871393</v>
       </c>
       <c r="K14">
-        <v>1.05285913712917</v>
+        <v>1.046996742417016</v>
       </c>
       <c r="L14">
-        <v>1.031706770291427</v>
+        <v>1.012034394976255</v>
       </c>
       <c r="M14">
-        <v>1.058172537987284</v>
+        <v>1.044065203319716</v>
       </c>
       <c r="N14">
-        <v>1.036089761063099</v>
+        <v>1.018845445449093</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02808801247505</v>
+        <v>0.9879561172170527</v>
       </c>
       <c r="D15">
-        <v>1.049404290649123</v>
+        <v>1.032995617540363</v>
       </c>
       <c r="E15">
-        <v>1.028185495392453</v>
+        <v>0.9974264624708564</v>
       </c>
       <c r="F15">
-        <v>1.054752964915567</v>
+        <v>1.03008002814805</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043498317232247</v>
+        <v>1.050444664323329</v>
       </c>
       <c r="J15">
-        <v>1.034676354191658</v>
+        <v>1.017684483721135</v>
       </c>
       <c r="K15">
-        <v>1.05290685565765</v>
+        <v>1.047252377444935</v>
       </c>
       <c r="L15">
-        <v>1.031765896436967</v>
+        <v>1.012324877150123</v>
       </c>
       <c r="M15">
-        <v>1.058236454868173</v>
+        <v>1.044387226319177</v>
       </c>
       <c r="N15">
-        <v>1.036145713293647</v>
+        <v>1.019129712418061</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028633809453156</v>
+        <v>0.9908171378006302</v>
       </c>
       <c r="D16">
-        <v>1.049795412904391</v>
+        <v>1.034996691346138</v>
       </c>
       <c r="E16">
-        <v>1.02864619965632</v>
+        <v>0.9996628007540811</v>
       </c>
       <c r="F16">
-        <v>1.055238184032499</v>
+        <v>1.03247406069465</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043646357600533</v>
+        <v>1.051434577291965</v>
       </c>
       <c r="J16">
-        <v>1.03500154657291</v>
+        <v>1.019321919186893</v>
       </c>
       <c r="K16">
-        <v>1.053184470633038</v>
+        <v>1.048726658089033</v>
       </c>
       <c r="L16">
-        <v>1.032110127767856</v>
+        <v>1.014001450451618</v>
       </c>
       <c r="M16">
-        <v>1.058608508102693</v>
+        <v>1.046245705836916</v>
       </c>
       <c r="N16">
-        <v>1.03647136748538</v>
+        <v>1.020769473229997</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.028976372732414</v>
+        <v>0.9925903568228174</v>
       </c>
       <c r="D17">
-        <v>1.050040870812146</v>
+        <v>1.036238509366802</v>
       </c>
       <c r="E17">
-        <v>1.028935488054631</v>
+        <v>1.001051281486604</v>
       </c>
       <c r="F17">
-        <v>1.055542793052339</v>
+        <v>1.033960114219644</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043738874415825</v>
+        <v>1.05204535297165</v>
       </c>
       <c r="J17">
-        <v>1.035205519670804</v>
+        <v>1.020336285038554</v>
       </c>
       <c r="K17">
-        <v>1.053358497781615</v>
+        <v>1.049639641312495</v>
       </c>
       <c r="L17">
-        <v>1.032326134629367</v>
+        <v>1.01504090300472</v>
       </c>
       <c r="M17">
-        <v>1.058841911804735</v>
+        <v>1.047397795112726</v>
       </c>
       <c r="N17">
-        <v>1.036675630248469</v>
+        <v>1.021785279597517</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.029176255459183</v>
+        <v>0.9936171181460369</v>
       </c>
       <c r="D18">
-        <v>1.050184083913115</v>
+        <v>1.036958108998326</v>
       </c>
       <c r="E18">
-        <v>1.029104332936328</v>
+        <v>1.001856121365016</v>
       </c>
       <c r="F18">
-        <v>1.055720553592569</v>
+        <v>1.034821384492296</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043792713313705</v>
+        <v>1.052398003992737</v>
       </c>
       <c r="J18">
-        <v>1.035324489206766</v>
+        <v>1.02092345087059</v>
       </c>
       <c r="K18">
-        <v>1.053459963570618</v>
+        <v>1.05016799840226</v>
       </c>
       <c r="L18">
-        <v>1.032452156066825</v>
+        <v>1.015642892467816</v>
       </c>
       <c r="M18">
-        <v>1.058978060555182</v>
+        <v>1.048064957339241</v>
       </c>
       <c r="N18">
-        <v>1.036794768734819</v>
+        <v>1.022373279272383</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.029244422365507</v>
+        <v>0.9939659582912778</v>
       </c>
       <c r="D19">
-        <v>1.050232922888463</v>
+        <v>1.037202680365564</v>
       </c>
       <c r="E19">
-        <v>1.029161922919813</v>
+        <v>1.002129707748405</v>
       </c>
       <c r="F19">
-        <v>1.055781180081912</v>
+        <v>1.03511413063046</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043811049828135</v>
+        <v>1.052517643210294</v>
       </c>
       <c r="J19">
-        <v>1.035365053941292</v>
+        <v>1.021122905750669</v>
       </c>
       <c r="K19">
-        <v>1.053494553735485</v>
+        <v>1.0503474544861</v>
       </c>
       <c r="L19">
-        <v>1.032495130879722</v>
+        <v>1.015847433998733</v>
       </c>
       <c r="M19">
-        <v>1.059024485122374</v>
+        <v>1.04829163208919</v>
       </c>
       <c r="N19">
-        <v>1.03683539107592</v>
+        <v>1.022573017401269</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028939611543211</v>
+        <v>0.9924008900617631</v>
       </c>
       <c r="D20">
-        <v>1.05001453117949</v>
+        <v>1.036105765654314</v>
       </c>
       <c r="E20">
-        <v>1.028904438979268</v>
+        <v>1.000902834377526</v>
       </c>
       <c r="F20">
-        <v>1.055510102347974</v>
+        <v>1.033801248401169</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043728961118666</v>
+        <v>1.051980196663749</v>
       </c>
       <c r="J20">
-        <v>1.035183635746886</v>
+        <v>1.020227920492863</v>
       </c>
       <c r="K20">
-        <v>1.053339830577822</v>
+        <v>1.049542120000863</v>
       </c>
       <c r="L20">
-        <v>1.032302956202001</v>
+        <v>1.014929827086776</v>
       </c>
       <c r="M20">
-        <v>1.058816868924103</v>
+        <v>1.047274688844708</v>
       </c>
       <c r="N20">
-        <v>1.036653715246869</v>
+        <v>1.021676761161741</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027949483953549</v>
+        <v>0.9872228707297082</v>
       </c>
       <c r="D21">
-        <v>1.049305012412667</v>
+        <v>1.032483284282486</v>
       </c>
       <c r="E21">
-        <v>1.028068605242937</v>
+        <v>0.9968540893262334</v>
       </c>
       <c r="F21">
-        <v>1.054629832418009</v>
+        <v>1.029467196251585</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043460620234847</v>
+        <v>1.050190115476932</v>
       </c>
       <c r="J21">
-        <v>1.034593777180629</v>
+        <v>1.017264685154661</v>
       </c>
       <c r="K21">
-        <v>1.052836328264033</v>
+        <v>1.046874320446542</v>
       </c>
       <c r="L21">
-        <v>1.031678513128951</v>
+        <v>1.011895308066568</v>
       </c>
       <c r="M21">
-        <v>1.058141990041935</v>
+        <v>1.043911012088318</v>
       </c>
       <c r="N21">
-        <v>1.03606301901379</v>
+        <v>1.018709317689471</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.027327603915003</v>
+        <v>0.9838951949804429</v>
       </c>
       <c r="D22">
-        <v>1.048859297905099</v>
+        <v>1.030160909160734</v>
       </c>
       <c r="E22">
-        <v>1.027544066722595</v>
+        <v>0.9942604422031983</v>
       </c>
       <c r="F22">
-        <v>1.054077171550681</v>
+        <v>1.026689770276949</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0432907868398</v>
+        <v>1.04903081173914</v>
       </c>
       <c r="J22">
-        <v>1.034222877092415</v>
+        <v>1.015358887401015</v>
       </c>
       <c r="K22">
-        <v>1.052519393658916</v>
+        <v>1.045157650963363</v>
       </c>
       <c r="L22">
-        <v>1.031286164672822</v>
+        <v>1.009946464821323</v>
       </c>
       <c r="M22">
-        <v>1.057717753055044</v>
+        <v>1.041750413133302</v>
       </c>
       <c r="N22">
-        <v>1.035691592204907</v>
+        <v>1.016800813484417</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027657211977234</v>
+        <v>0.985666301709657</v>
       </c>
       <c r="D23">
-        <v>1.049095542190076</v>
+        <v>1.031396396348291</v>
       </c>
       <c r="E23">
-        <v>1.027822040743066</v>
+        <v>0.995640070906024</v>
       </c>
       <c r="F23">
-        <v>1.054370071058728</v>
+        <v>1.028167242620697</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043380924324611</v>
+        <v>1.04964865260383</v>
       </c>
       <c r="J23">
-        <v>1.034419500941978</v>
+        <v>1.016373343668586</v>
       </c>
       <c r="K23">
-        <v>1.052687440616581</v>
+        <v>1.046071504503939</v>
       </c>
       <c r="L23">
-        <v>1.031494130590271</v>
+        <v>1.010983569519181</v>
       </c>
       <c r="M23">
-        <v>1.057942640399596</v>
+        <v>1.042900231472321</v>
       </c>
       <c r="N23">
-        <v>1.035888495282891</v>
+        <v>1.017816710396247</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.028956222121896</v>
+        <v>0.9924865251532304</v>
       </c>
       <c r="D24">
-        <v>1.050026432797238</v>
+        <v>1.036165761424887</v>
       </c>
       <c r="E24">
-        <v>1.028918468386894</v>
+        <v>1.000969926776196</v>
       </c>
       <c r="F24">
-        <v>1.055524873600777</v>
+        <v>1.033873050055728</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043733440896011</v>
+        <v>1.052009649118513</v>
       </c>
       <c r="J24">
-        <v>1.035193524164226</v>
+        <v>1.020276899639823</v>
       </c>
       <c r="K24">
-        <v>1.05334826561148</v>
+        <v>1.049586198554223</v>
       </c>
       <c r="L24">
-        <v>1.032313429448366</v>
+        <v>1.014980030796569</v>
       </c>
       <c r="M24">
-        <v>1.058828184698395</v>
+        <v>1.04733033017786</v>
       </c>
       <c r="N24">
-        <v>1.036663617706897</v>
+        <v>1.021725809864708</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03046644543571</v>
+        <v>1.000107577934695</v>
       </c>
       <c r="D25">
-        <v>1.051108306854579</v>
+        <v>1.041515676786682</v>
       </c>
       <c r="E25">
-        <v>1.030195036359506</v>
+        <v>1.006958489086591</v>
       </c>
       <c r="F25">
-        <v>1.056868373185893</v>
+        <v>1.040278997847034</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044137626161749</v>
+        <v>1.05460866027122</v>
       </c>
       <c r="J25">
-        <v>1.036091553392187</v>
+        <v>1.02463132219545</v>
       </c>
       <c r="K25">
-        <v>1.054113491076681</v>
+        <v>1.053501971793342</v>
       </c>
       <c r="L25">
-        <v>1.033265285267232</v>
+        <v>1.01944973538707</v>
       </c>
       <c r="M25">
-        <v>1.059856130036993</v>
+        <v>1.052282632004802</v>
       </c>
       <c r="N25">
-        <v>1.037562922239367</v>
+        <v>1.026086416199823</v>
       </c>
     </row>
   </sheetData>
